--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3485077.012230713</v>
+        <v>3482824.932519506</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078335</v>
+        <v>7888084.313078333</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>14.9568734110632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>82.44197461223459</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.9870153438506</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>138.2117435109535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>283.9746808062639</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991666</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.54490042790936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1616.654488422265</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.691971481853</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>889.4262728751025</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>503.6380202768583</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>92.65211548725074</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>81.62006937265129</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>81.62006937265129</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723278</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.393660462198</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.254328486386</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5323442946291</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>507.5323442946291</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.5323442946291</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2866.097597267229</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1029.71928130825</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473101</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577025</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336148</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512217</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533114</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,16 +5130,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,13 +5975,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6130,19 +6130,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
@@ -6215,13 +6215,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,16 +7017,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,16 +7251,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7309,16 +7309,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.0397529241854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685507</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127299</v>
+        <v>-770618.83601273</v>
       </c>
       <c r="C6" t="n">
-        <v>558125.9097148625</v>
+        <v>558125.9097148629</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148634</v>
+        <v>558125.9097148631</v>
       </c>
       <c r="E6" t="n">
-        <v>305858.8610051378</v>
+        <v>305824.1230797024</v>
       </c>
       <c r="F6" t="n">
-        <v>631271.3228124927</v>
+        <v>631236.5848870578</v>
       </c>
       <c r="G6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870572</v>
       </c>
       <c r="H6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="I6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="J6" t="n">
-        <v>413740.1204152157</v>
+        <v>413705.3824897797</v>
       </c>
       <c r="K6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="L6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="M6" t="n">
-        <v>546216.2948769815</v>
+        <v>546181.5569515456</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870573</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870574</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.62005636186275</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>143.2676807768026</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.250923312203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>148.3112548256375</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>126.9470448471895</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911157</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32020,7 +32020,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
